--- a/pred_ohlcv/54_21/2020-01-16 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 VET ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-1636122.1275</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1659894.7184</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1676397.1179</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1777313.9565</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1763783.9565</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1523920.6163</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1396565.9338</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1401778.3731</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-831729.5388999998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-831729.5388999998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-390696.6761999998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-156293.6761999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-142446.6699999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-193370.9713999997</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-160247.4202999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-163537.0812999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>407665.0685000003</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>133959.4193000003</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>193343.1299000003</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1020108.0455</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>959864.7283000003</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1030661.5844</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1030661.5844</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>712276.0494000004</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>704383.8174000004</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>806383.8174000004</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>774675.5761000004</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>627850.3319000005</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1147980.862500001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4716545.491569603</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>4390342.713069603</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>5827542.110969603</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>5690839.626069603</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>5589604.544869604</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>5593408.892669603</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5286440.927569603</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5400002.948269603</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1670095.663869602</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8285442.931232225</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8175206.576332225</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>8180336.731932226</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>8181492.795732225</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>8250977.307232225</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>8131403.441332226</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>8240461.227732225</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>8244487.473332225</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>8297791.923032225</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>8287210.392032225</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>8295896.574532225</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>8463649.467132226</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>8454927.941932226</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>8545987.025632225</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>8560880.145132225</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>8555657.395132225</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>8826657.395132225</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>9118657.395132225</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>9098080.410032226</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>9070565.112432227</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>8965494.542932227</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>8951719.542932227</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>8951719.542932227</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>8952319.542932227</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>8880120.105432227</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>8874120.105432227</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>8633212.715732228</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>8633212.715732228</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>8638562.715732228</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>8639492.407032227</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>8584495.621132227</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>8353862.780332226</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>8272432.602032227</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>8272432.602032227</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>8574590.049232226</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>8570170.049232226</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>8570170.049232226</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 VET ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-1636122.1275</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1659894.7184</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1676397.1179</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1777313.9565</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1763783.9565</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1523920.6163</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1396565.9338</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1401778.3731</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-831729.5388999998</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-390696.6761999998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-156293.6761999998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-142446.6699999998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-193370.9713999997</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-160247.4202999998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-163537.0812999998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>407665.0685000003</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>133959.4193000003</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>193343.1299000003</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1020108.0455</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>959864.7283000003</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1030661.5844</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1030661.5844</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>712276.0494000004</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>704383.8174000004</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>806383.8174000004</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>774675.5761000004</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>627850.3319000005</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1147980.862500001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4875265.672869603</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4716545.491569603</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>4390342.713069603</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4856725.313769603</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>5407253.775569603</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>5827542.110969603</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>5690839.626069603</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>5589604.544869604</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>5593408.892669603</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5286440.927569603</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5400002.948269603</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5394828.861169603</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1670095.663869602</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8285442.931232225</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8175206.576332225</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>8180336.731932226</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>8181492.795732225</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>8250977.307232225</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>8131403.441332226</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>8240461.227732225</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>8244487.473332225</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>8297791.923032225</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>8287210.392032225</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>8295896.574532225</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>8463649.467132226</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>8454927.941932226</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>8633576.223932225</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
